--- a/files/Loan Payoff Calculator.xlsx
+++ b/files/Loan Payoff Calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jeezy-pc\y\Programming\MyServer\Server2Go\htdocs\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63863F6A-E610-44AF-B44D-11FA92F7F658}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D302C-34D2-45D8-A57F-F6D623A8E612}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9225" xr2:uid="{94986843-A3F4-4BD4-A51A-9087BF7AAF9F}"/>
   </bookViews>
@@ -61,64 +61,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="D87" authorId="0" shapeId="0" xr:uid="{E43157DC-EF89-4B57-A622-3445E603BA01}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeezy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-tax refund</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E87" authorId="0" shapeId="0" xr:uid="{2D6268BD-FC3B-42EC-8A2D-0B755E8E5A9A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeezy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tax refund</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Payment</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -126,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,12 +87,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -513,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B03A0D-E42E-4A64-BD93-FF30EA7B88C6}">
-  <dimension ref="B1:E120"/>
+  <dimension ref="B1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +462,7 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
@@ -535,7 +473,7 @@
       <c r="C1" s="4">
         <v>20000</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="5">
         <v>0</v>
       </c>
     </row>
@@ -544,7 +482,7 @@
         <v>43423</v>
       </c>
       <c r="C2" s="2">
-        <f>(C1)*Period_Interest</f>
+        <f t="shared" ref="C2:C33" si="0">IF(C1-D1&lt;0,(C1-D1),(C1-D1)*Period_Interest)</f>
         <v>20004.383561643837</v>
       </c>
     </row>
@@ -553,7 +491,7 @@
         <v>43424</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C34" si="0">(C2-D2)*Period_Interest</f>
+        <f t="shared" si="0"/>
         <v>20008.76808406831</v>
       </c>
     </row>
@@ -835,7 +773,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C34:C65" si="1">IF(C33-D33&lt;0,(C33-D33),(C33-D33)*Period_Interest)</f>
         <v>15135.294312100263</v>
       </c>
     </row>
@@ -844,7 +782,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ref="C35:C66" si="1">(C34-D34)*Period_Interest</f>
+        <f t="shared" si="1"/>
         <v>15138.611636880998</v>
       </c>
     </row>
@@ -1130,7 +1068,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C66:C97" si="2">IF(C65-D65&lt;0,(C65-D65),(C65-D65)*Period_Interest)</f>
         <v>10230.840411662846</v>
       </c>
     </row>
@@ -1139,7 +1077,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ref="C67:C98" si="2">(C66-D66)*Period_Interest</f>
+        <f t="shared" si="2"/>
         <v>10233.082787643485</v>
       </c>
     </row>
@@ -1323,11 +1261,11 @@
         <v>10278.033661397438</v>
       </c>
       <c r="D87" s="2">
-        <v>7500</v>
+        <v>6100</v>
       </c>
       <c r="E87" s="2">
-        <f>1565.67+1700+922.5+945+1865.67+738</f>
-        <v>7736.84</v>
+        <f>1565.67+1700+922.5+945+1865.67</f>
+        <v>6998.84</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
@@ -1336,7 +1274,7 @@
       </c>
       <c r="C88" s="2">
         <f t="shared" si="2"/>
-        <v>2778.6425454876071</v>
+        <v>4178.9493948026757</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -1345,7 +1283,7 @@
       </c>
       <c r="C89" s="2">
         <f t="shared" si="2"/>
-        <v>2779.2515630318239</v>
+        <v>4179.865328916605</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
@@ -1354,7 +1292,7 @@
       </c>
       <c r="C90" s="2">
         <f t="shared" si="2"/>
-        <v>2779.8607140593381</v>
+        <v>4180.7814637832171</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
@@ -1363,7 +1301,7 @@
       </c>
       <c r="C91" s="2">
         <f t="shared" si="2"/>
-        <v>2780.4699985994062</v>
+        <v>4181.6977994465124</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
@@ -1372,7 +1310,7 @@
       </c>
       <c r="C92" s="2">
         <f t="shared" si="2"/>
-        <v>2781.0794166812911</v>
+        <v>4182.6143359505013</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
@@ -1381,7 +1319,7 @@
       </c>
       <c r="C93" s="2">
         <f t="shared" si="2"/>
-        <v>2781.6889683342624</v>
+        <v>4183.5310733392034</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
@@ -1390,7 +1328,7 @@
       </c>
       <c r="C94" s="2">
         <f t="shared" si="2"/>
-        <v>2782.2986535875962</v>
+        <v>4184.4480116566483</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
@@ -1399,7 +1337,7 @@
       </c>
       <c r="C95" s="2">
         <f t="shared" si="2"/>
-        <v>2782.9084724705745</v>
+        <v>4185.3651509468746</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
@@ -1408,145 +1346,491 @@
       </c>
       <c r="C96" s="2">
         <f t="shared" si="2"/>
-        <v>2783.5184250124862</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4186.2824912539318</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>43518</v>
       </c>
       <c r="C97" s="2">
         <f t="shared" si="2"/>
-        <v>2784.1285112426262</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4187.2000326218786</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>43519</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" si="2"/>
-        <v>2784.7387311902962</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C98:C129" si="3">IF(C97-D97&lt;0,(C97-D97),(C97-D97)*Period_Interest)</f>
+        <v>4188.1177750947827</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>43520</v>
       </c>
       <c r="C99" s="2">
-        <f t="shared" ref="C99:C104" si="3">(C98-D98)*Period_Interest</f>
-        <v>2785.3490848848037</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4189.0357187167219</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>43521</v>
       </c>
       <c r="C100" s="2">
         <f t="shared" si="3"/>
-        <v>2785.9595723554635</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4189.9538635317831</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>43522</v>
       </c>
       <c r="C101" s="2">
         <f t="shared" si="3"/>
-        <v>2786.5701936315963</v>
-      </c>
-      <c r="D101" s="2">
-        <v>1500</v>
-      </c>
-      <c r="E101" s="2">
-        <v>1565.67</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4190.872209584064</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>43523</v>
       </c>
       <c r="C102" s="2">
         <f t="shared" si="3"/>
-        <v>1286.8521816192417</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4191.7907569176714</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>43524</v>
       </c>
       <c r="C103" s="2">
         <f t="shared" si="3"/>
-        <v>1287.1342314124734</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4192.7095055767222</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>43525</v>
       </c>
       <c r="C104" s="2">
         <f t="shared" si="3"/>
-        <v>1287.4163430248377</v>
-      </c>
-      <c r="D104" s="2">
-        <f>C104</f>
-        <v>1287.4163430248377</v>
-      </c>
-      <c r="E104" s="2">
-        <f>D104</f>
-        <v>1287.4163430248377</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="1"/>
+        <v>4193.6284556053424</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>43526</v>
+      </c>
+      <c r="C105" s="2">
+        <f t="shared" si="3"/>
+        <v>4194.547607047667</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>43527</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" si="3"/>
+        <v>4195.466959947842</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C107" s="2">
+        <f t="shared" si="3"/>
+        <v>4196.3865143500225</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>43529</v>
+      </c>
+      <c r="C108" s="2">
+        <f t="shared" si="3"/>
+        <v>4197.3062702983734</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>43530</v>
+      </c>
+      <c r="C109" s="2">
+        <f t="shared" si="3"/>
+        <v>4198.226227837069</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="1">
+        <v>43531</v>
+      </c>
+      <c r="C110" s="2">
+        <f t="shared" si="3"/>
+        <v>4199.1463870102934</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <v>43532</v>
+      </c>
+      <c r="C111" s="2">
+        <f t="shared" si="3"/>
+        <v>4200.0667478622408</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="1">
+        <v>43533</v>
+      </c>
+      <c r="C112" s="2">
+        <f t="shared" si="3"/>
+        <v>4200.9873104371154</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="1">
+        <v>43534</v>
+      </c>
+      <c r="C113" s="2">
+        <f t="shared" si="3"/>
+        <v>4201.9080747791295</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C114" s="2">
+        <f t="shared" si="3"/>
+        <v>4202.8290409325064</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="1">
+        <v>43536</v>
+      </c>
+      <c r="C115" s="2">
+        <f t="shared" si="3"/>
+        <v>4203.7502089414784</v>
+      </c>
+      <c r="D115" s="2">
+        <v>7100</v>
+      </c>
+      <c r="E115" s="2">
+        <f>1565.67+1700+922.5+945+1865.67</f>
+        <v>6998.84</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="1">
+        <v>43537</v>
+      </c>
+      <c r="C116" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="1">
+        <v>43538</v>
+      </c>
+      <c r="C117" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="1">
+        <v>43539</v>
+      </c>
+      <c r="C118" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="1">
+        <v>43540</v>
+      </c>
+      <c r="C119" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>43541</v>
+      </c>
+      <c r="C120" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C121" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="1">
+        <v>43543</v>
+      </c>
+      <c r="C122" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="1">
+        <v>43544</v>
+      </c>
+      <c r="C123" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="1">
+        <v>43545</v>
+      </c>
+      <c r="C124" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>43546</v>
+      </c>
+      <c r="C125" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="1">
+        <v>43547</v>
+      </c>
+      <c r="C126" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="1">
+        <v>43548</v>
+      </c>
+      <c r="C127" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C128" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="1">
+        <v>43550</v>
+      </c>
+      <c r="C129" s="2">
+        <f t="shared" si="3"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="1">
+        <v>43551</v>
+      </c>
+      <c r="C130" s="2">
+        <f t="shared" ref="C130:C147" si="4">IF(C129-D129&lt;0,(C129-D129),(C129-D129)*Period_Interest)</f>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="1">
+        <v>43552</v>
+      </c>
+      <c r="C131" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="1">
+        <v>43553</v>
+      </c>
+      <c r="C132" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="1">
+        <v>43554</v>
+      </c>
+      <c r="C133" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="1">
+        <v>43555</v>
+      </c>
+      <c r="C134" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C135" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="1">
+        <v>43557</v>
+      </c>
+      <c r="C136" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="1">
+        <v>43558</v>
+      </c>
+      <c r="C137" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="1">
+        <v>43559</v>
+      </c>
+      <c r="C138" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="1">
+        <v>43560</v>
+      </c>
+      <c r="C139" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="1">
+        <v>43561</v>
+      </c>
+      <c r="C140" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="1">
+        <v>43562</v>
+      </c>
+      <c r="C141" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C142" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="1">
+        <v>43564</v>
+      </c>
+      <c r="C143" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="1">
+        <v>43565</v>
+      </c>
+      <c r="C144" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="1">
+        <v>43566</v>
+      </c>
+      <c r="C145" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="1">
+        <v>43567</v>
+      </c>
+      <c r="C146" s="2">
+        <f t="shared" si="4"/>
+        <v>-2896.2497910585216</v>
+      </c>
+      <c r="D146" s="2">
+        <v>7100</v>
+      </c>
+      <c r="E146" s="2">
+        <f>1565.67+1700+922.5+945+1865.67</f>
+        <v>6998.84</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="1">
+        <v>43568</v>
+      </c>
+      <c r="C147" s="2">
+        <f t="shared" si="4"/>
+        <v>-9996.2497910585225</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>